--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1692.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1692.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.710281337861663</v>
+        <v>0.5862395763397217</v>
       </c>
       <c r="B1">
-        <v>4.236358989099095</v>
+        <v>1.250509023666382</v>
       </c>
       <c r="C1">
-        <v>2.450145873648711</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.829283732995629</v>
+        <v>1.758764386177063</v>
       </c>
       <c r="E1">
-        <v>1.611895229381357</v>
+        <v>1.499902725219727</v>
       </c>
     </row>
   </sheetData>
